--- a/Code/Results/Cases/Case_9_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.042103809833691</v>
+        <v>1.028587498741103</v>
       </c>
       <c r="C2">
-        <v>0.2238181668171393</v>
+        <v>0.233098376419818</v>
       </c>
       <c r="D2">
-        <v>0.07938805096132739</v>
+        <v>0.08236975848354433</v>
       </c>
       <c r="E2">
-        <v>1.298699338720354</v>
+        <v>1.300199453802605</v>
       </c>
       <c r="F2">
-        <v>0.401938209392334</v>
+        <v>0.3786188437505018</v>
       </c>
       <c r="G2">
-        <v>0.2995864397988868</v>
+        <v>0.2591030841733541</v>
       </c>
       <c r="H2">
-        <v>0.005449306471356108</v>
+        <v>0.00559298633838079</v>
       </c>
       <c r="I2">
-        <v>0.0004468198962870318</v>
+        <v>0.0005566624705011236</v>
       </c>
       <c r="J2">
-        <v>0.2762469249950925</v>
+        <v>0.2976077973051332</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1340571584837171</v>
       </c>
       <c r="M2">
-        <v>1.150226967687814</v>
+        <v>0.05704133102362796</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.172341317984774</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.161753514985662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.085498499159485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9088492712414507</v>
+        <v>0.9002226282952108</v>
       </c>
       <c r="C3">
-        <v>0.2057260073450067</v>
+        <v>0.208595968191716</v>
       </c>
       <c r="D3">
-        <v>0.07079711596460925</v>
+        <v>0.07284794922554738</v>
       </c>
       <c r="E3">
-        <v>1.131401557210637</v>
+        <v>1.133336890739159</v>
       </c>
       <c r="F3">
-        <v>0.383093790694808</v>
+        <v>0.3633387097443475</v>
       </c>
       <c r="G3">
-        <v>0.2894844153835336</v>
+        <v>0.2527996177714229</v>
       </c>
       <c r="H3">
-        <v>0.00352492083272038</v>
+        <v>0.003685405057271884</v>
       </c>
       <c r="I3">
-        <v>0.0006011805631436218</v>
+        <v>0.0005387445378444156</v>
       </c>
       <c r="J3">
-        <v>0.2758047103648664</v>
+        <v>0.2966025517085384</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1393955921337948</v>
       </c>
       <c r="M3">
-        <v>1.009953422831444</v>
+        <v>0.05726006089628122</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.027087812432001</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.13913124088424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.072723005719723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8267243529761856</v>
+        <v>0.820992493486159</v>
       </c>
       <c r="C4">
-        <v>0.1947788441642615</v>
+        <v>0.1938413009635553</v>
       </c>
       <c r="D4">
-        <v>0.06552514902482898</v>
+        <v>0.06702058844532388</v>
       </c>
       <c r="E4">
-        <v>1.028817039895145</v>
+        <v>1.030987662317543</v>
       </c>
       <c r="F4">
-        <v>0.3719010040435791</v>
+        <v>0.3542334358186849</v>
       </c>
       <c r="G4">
-        <v>0.2835809298636889</v>
+        <v>0.2492213265646868</v>
       </c>
       <c r="H4">
-        <v>0.002518059688489505</v>
+        <v>0.00267799609174002</v>
       </c>
       <c r="I4">
-        <v>0.000867538926448308</v>
+        <v>0.000669719868187979</v>
       </c>
       <c r="J4">
-        <v>0.2757462666526962</v>
+        <v>0.2960433344210216</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1428182672856906</v>
       </c>
       <c r="M4">
-        <v>0.9238478144600322</v>
+        <v>0.05787019299129614</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.937991384602924</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.126314473333636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.065650989836655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.792761117340774</v>
+        <v>0.7881998695841048</v>
       </c>
       <c r="C5">
-        <v>0.1908283112950926</v>
+        <v>0.188390249517667</v>
       </c>
       <c r="D5">
-        <v>0.06345122453573993</v>
+        <v>0.0647233916109542</v>
       </c>
       <c r="E5">
-        <v>0.987021993098395</v>
+        <v>0.9892817893652079</v>
       </c>
       <c r="F5">
-        <v>0.3669729280510907</v>
+        <v>0.350159580043865</v>
       </c>
       <c r="G5">
-        <v>0.2808033229004891</v>
+        <v>0.2474261675976521</v>
       </c>
       <c r="H5">
-        <v>0.002147882208356044</v>
+        <v>0.002305058379249436</v>
       </c>
       <c r="I5">
-        <v>0.001086375161853503</v>
+        <v>0.0008383685993464951</v>
       </c>
       <c r="J5">
-        <v>0.2755404157840431</v>
+        <v>0.2956031406370982</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1440750472832288</v>
       </c>
       <c r="M5">
-        <v>0.889236023593611</v>
+        <v>0.05816903533567341</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.902165729421057</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.119920048007231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.061625032615083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7866067980852733</v>
+        <v>0.7822591131092054</v>
       </c>
       <c r="C6">
-        <v>0.1907556702936262</v>
+        <v>0.1880943068138379</v>
       </c>
       <c r="D6">
-        <v>0.06319788981853947</v>
+        <v>0.06443202111086777</v>
       </c>
       <c r="E6">
-        <v>0.9800693504927978</v>
+        <v>0.9823440393304708</v>
       </c>
       <c r="F6">
-        <v>0.365601939738724</v>
+        <v>0.3489636488904253</v>
       </c>
       <c r="G6">
-        <v>0.2798058097978355</v>
+        <v>0.2466373984020649</v>
       </c>
       <c r="H6">
-        <v>0.002087893155173992</v>
+        <v>0.0022444757770681</v>
       </c>
       <c r="I6">
-        <v>0.001217296380633393</v>
+        <v>0.0009767389966848228</v>
       </c>
       <c r="J6">
-        <v>0.2752239054103995</v>
+        <v>0.295254699584973</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1440741811790076</v>
       </c>
       <c r="M6">
-        <v>0.8840744186961444</v>
+        <v>0.05814178343665066</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8967879548376914</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.117129877687574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.059348065650312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8248694121927542</v>
+        <v>0.8192607728177563</v>
       </c>
       <c r="C7">
-        <v>0.1963168154211274</v>
+        <v>0.1953125724747338</v>
       </c>
       <c r="D7">
-        <v>0.06574665850884998</v>
+        <v>0.06737834305222634</v>
       </c>
       <c r="E7">
-        <v>1.028216427648033</v>
+        <v>1.030361618308334</v>
       </c>
       <c r="F7">
-        <v>0.3703105645145541</v>
+        <v>0.3519614610228388</v>
       </c>
       <c r="G7">
-        <v>0.2820675500928829</v>
+        <v>0.2499298337270943</v>
       </c>
       <c r="H7">
-        <v>0.002510213331847977</v>
+        <v>0.002668096274674348</v>
       </c>
       <c r="I7">
-        <v>0.001106527885818664</v>
+        <v>0.0009509406155467914</v>
       </c>
       <c r="J7">
-        <v>0.2749653481603076</v>
+        <v>0.2918755089016969</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1420740351381813</v>
       </c>
       <c r="M7">
-        <v>0.9249868953467342</v>
+        <v>0.05754008042122916</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9389422632224864</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.121469562592011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.05876765015347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9943507392162019</v>
+        <v>0.9827910470150982</v>
       </c>
       <c r="C8">
-        <v>0.2196785083742725</v>
+        <v>0.2264504731542303</v>
       </c>
       <c r="D8">
-        <v>0.07675905370454927</v>
+        <v>0.07989512820983435</v>
       </c>
       <c r="E8">
-        <v>1.240927523020687</v>
+        <v>1.242492985799231</v>
       </c>
       <c r="F8">
-        <v>0.3933462808230956</v>
+        <v>0.3688077506187639</v>
       </c>
       <c r="G8">
-        <v>0.2940909335166708</v>
+        <v>0.2620675623641731</v>
       </c>
       <c r="H8">
-        <v>0.004743067507083976</v>
+        <v>0.004886429347828791</v>
       </c>
       <c r="I8">
-        <v>0.0007453224877531639</v>
+        <v>0.0008551936368856872</v>
       </c>
       <c r="J8">
-        <v>0.2750275874832084</v>
+        <v>0.2852385932975352</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1346287676800184</v>
       </c>
       <c r="M8">
-        <v>1.104001074898463</v>
+        <v>0.05627958644208064</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.123901640802302</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.147454534245526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.067220174812803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.326981955812528</v>
+        <v>1.302551925708741</v>
       </c>
       <c r="C9">
-        <v>0.2640124011302021</v>
+        <v>0.287331116400523</v>
       </c>
       <c r="D9">
-        <v>0.09795043983682206</v>
+        <v>0.1036502782704858</v>
       </c>
       <c r="E9">
-        <v>1.659909258674844</v>
+        <v>1.66013551773591</v>
       </c>
       <c r="F9">
-        <v>0.4444995914625309</v>
+        <v>0.4096614070643341</v>
       </c>
       <c r="G9">
-        <v>0.3229027539980152</v>
+        <v>0.2831801792887561</v>
       </c>
       <c r="H9">
-        <v>0.01065805962499035</v>
+        <v>0.01068450338176331</v>
       </c>
       <c r="I9">
-        <v>0.001149373007438115</v>
+        <v>0.001450258371620272</v>
       </c>
       <c r="J9">
-        <v>0.2783154147172624</v>
+        <v>0.2860166128916433</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1227770036829714</v>
       </c>
       <c r="M9">
-        <v>1.452666773527881</v>
+        <v>0.05848752466722296</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.485251364820328</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.216080626743235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.107040672304308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.569229345225381</v>
+        <v>1.535672072449586</v>
       </c>
       <c r="C10">
-        <v>0.2980456482333267</v>
+        <v>0.3327851057222091</v>
       </c>
       <c r="D10">
-        <v>0.1150718001110818</v>
+        <v>0.1235702110039938</v>
       </c>
       <c r="E10">
-        <v>1.870104118284971</v>
+        <v>1.868995723808439</v>
       </c>
       <c r="F10">
-        <v>0.4764516956262526</v>
+        <v>0.4300424092039137</v>
       </c>
       <c r="G10">
-        <v>0.3383273267045084</v>
+        <v>0.306493247708687</v>
       </c>
       <c r="H10">
-        <v>0.01566582932849059</v>
+        <v>0.015520272255237</v>
       </c>
       <c r="I10">
-        <v>0.002571690421748762</v>
+        <v>0.002839202088300574</v>
       </c>
       <c r="J10">
-        <v>0.2781303717580954</v>
+        <v>0.2660938002898448</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1129753422356181</v>
       </c>
       <c r="M10">
-        <v>1.709872079068674</v>
+        <v>0.060370954746368</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.750532542495762</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.248839102896909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.107204127612292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.674172425348615</v>
+        <v>1.642524105530384</v>
       </c>
       <c r="C11">
-        <v>0.3131549228799884</v>
+        <v>0.3452641702456845</v>
       </c>
       <c r="D11">
-        <v>0.1357587468679355</v>
+        <v>0.1467527084868436</v>
       </c>
       <c r="E11">
-        <v>1.197138014779611</v>
+        <v>1.195822187358601</v>
       </c>
       <c r="F11">
-        <v>0.4278414041381637</v>
+        <v>0.377929376242264</v>
       </c>
       <c r="G11">
-        <v>0.2860767151700827</v>
+        <v>0.2848485438581321</v>
       </c>
       <c r="H11">
-        <v>0.03175282463571349</v>
+        <v>0.03155102864705128</v>
       </c>
       <c r="I11">
-        <v>0.003474472356540304</v>
+        <v>0.003780383514662589</v>
       </c>
       <c r="J11">
-        <v>0.2483501880365608</v>
+        <v>0.2132764212968397</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1003390348616637</v>
       </c>
       <c r="M11">
-        <v>1.824604495117228</v>
+        <v>0.0505418038959391</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.861394686432249</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.075856513236005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9303223905348545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.714193752403332</v>
+        <v>1.6859665673432</v>
       </c>
       <c r="C12">
-        <v>0.3163436666275743</v>
+        <v>0.3438525890605604</v>
       </c>
       <c r="D12">
-        <v>0.1500353151919853</v>
+        <v>0.1619970822432464</v>
       </c>
       <c r="E12">
-        <v>0.7148676557542331</v>
+        <v>0.7137622257348113</v>
       </c>
       <c r="F12">
-        <v>0.38406970501525</v>
+        <v>0.3364441588465681</v>
       </c>
       <c r="G12">
-        <v>0.2441294322087444</v>
+        <v>0.2565526839413579</v>
       </c>
       <c r="H12">
-        <v>0.06839595983876734</v>
+        <v>0.06819595255803534</v>
       </c>
       <c r="I12">
-        <v>0.003520890429760115</v>
+        <v>0.003809013551958174</v>
       </c>
       <c r="J12">
-        <v>0.2256771530036872</v>
+        <v>0.1898856646525715</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09382863763359595</v>
       </c>
       <c r="M12">
-        <v>1.864846335828162</v>
+        <v>0.04345892842645682</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.89695167762585</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9394918190993025</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8059544404649444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.703992086781653</v>
+        <v>1.680482979621615</v>
       </c>
       <c r="C13">
-        <v>0.3130629171497787</v>
+        <v>0.3347732929648544</v>
       </c>
       <c r="D13">
-        <v>0.1604327267187244</v>
+        <v>0.1715964381858015</v>
       </c>
       <c r="E13">
-        <v>0.3513427727829495</v>
+        <v>0.3506242422992116</v>
       </c>
       <c r="F13">
-        <v>0.3390661421511183</v>
+        <v>0.2994506894120477</v>
       </c>
       <c r="G13">
-        <v>0.205305568329301</v>
+        <v>0.2159622677674093</v>
       </c>
       <c r="H13">
-        <v>0.1222437186418972</v>
+        <v>0.1220855412444024</v>
       </c>
       <c r="I13">
-        <v>0.003236992090609014</v>
+        <v>0.00354809188541072</v>
       </c>
       <c r="J13">
-        <v>0.2058632275364118</v>
+        <v>0.1826465176068375</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09030652308152387</v>
       </c>
       <c r="M13">
-        <v>1.85228972604537</v>
+        <v>0.03783319860798429</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.879115840672711</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8156550011206605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.708925806849976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.673698016449805</v>
+        <v>1.654071907987515</v>
       </c>
       <c r="C14">
-        <v>0.3084044752772286</v>
+        <v>0.3255616766073786</v>
       </c>
       <c r="D14">
-        <v>0.1660568015708463</v>
+        <v>0.1758023296548998</v>
       </c>
       <c r="E14">
-        <v>0.1687579168011553</v>
+        <v>0.1683079699730996</v>
       </c>
       <c r="F14">
-        <v>0.3071106181697232</v>
+        <v>0.275124976212588</v>
       </c>
       <c r="G14">
-        <v>0.1798248535086628</v>
+        <v>0.1839747348310894</v>
       </c>
       <c r="H14">
-        <v>0.1703908066344013</v>
+        <v>0.1702736111423633</v>
       </c>
       <c r="I14">
-        <v>0.002986489752248467</v>
+        <v>0.003341656904818358</v>
       </c>
       <c r="J14">
-        <v>0.1933558923805805</v>
+        <v>0.1824333922263328</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08887958134543972</v>
       </c>
       <c r="M14">
-        <v>1.820172976772255</v>
+        <v>0.03460882209263438</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.843015401699887</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7353810054461576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6518040269295824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.654971853532629</v>
+        <v>1.636573997471288</v>
       </c>
       <c r="C15">
-        <v>0.3065477707070983</v>
+        <v>0.3223694598471951</v>
       </c>
       <c r="D15">
-        <v>0.1665926241145002</v>
+        <v>0.1756340492631523</v>
       </c>
       <c r="E15">
-        <v>0.133266976737076</v>
+        <v>0.1328986270858543</v>
       </c>
       <c r="F15">
-        <v>0.2984474333661851</v>
+        <v>0.2692678088505644</v>
       </c>
       <c r="G15">
-        <v>0.1735397657414524</v>
+        <v>0.1741394144677955</v>
       </c>
       <c r="H15">
-        <v>0.1825050733841067</v>
+        <v>0.1824052690560762</v>
       </c>
       <c r="I15">
-        <v>0.002966514936855624</v>
+        <v>0.003361012736434965</v>
       </c>
       <c r="J15">
-        <v>0.1905672359722885</v>
+        <v>0.1843116505941076</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08883496822263748</v>
       </c>
       <c r="M15">
-        <v>1.801726107822049</v>
+        <v>0.03396924979591454</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.823465788128544</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7161826200144077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6404562126956961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.551770024540303</v>
+        <v>1.535814964463867</v>
       </c>
       <c r="C16">
-        <v>0.2934994382707572</v>
+        <v>0.3069137171060277</v>
       </c>
       <c r="D16">
-        <v>0.1568306110742554</v>
+        <v>0.1629959231689639</v>
       </c>
       <c r="E16">
-        <v>0.1304841066360147</v>
+        <v>0.1303685201928353</v>
       </c>
       <c r="F16">
-        <v>0.2933473191709268</v>
+        <v>0.2723237506838032</v>
       </c>
       <c r="G16">
-        <v>0.1742753789713092</v>
+        <v>0.1586247922772088</v>
       </c>
       <c r="H16">
-        <v>0.1682994998965484</v>
+        <v>0.1682710490317305</v>
       </c>
       <c r="I16">
-        <v>0.002503527968586106</v>
+        <v>0.002971628508600332</v>
       </c>
       <c r="J16">
-        <v>0.1941700855398949</v>
+        <v>0.2050144174696484</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09212539462397373</v>
       </c>
       <c r="M16">
-        <v>1.694343498993589</v>
+        <v>0.03554962627766844</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.714964313925321</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7251030811256385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6691543352888942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.488796000974673</v>
+        <v>1.472743243761045</v>
       </c>
       <c r="C17">
-        <v>0.2860452444527368</v>
+        <v>0.2998322408319609</v>
       </c>
       <c r="D17">
-        <v>0.1463888371302176</v>
+        <v>0.1515167473477561</v>
       </c>
       <c r="E17">
-        <v>0.211882843845089</v>
+        <v>0.21189409175836</v>
       </c>
       <c r="F17">
-        <v>0.3061989908515486</v>
+        <v>0.2869574694724335</v>
       </c>
       <c r="G17">
-        <v>0.1880432692333471</v>
+        <v>0.1644673905095928</v>
       </c>
       <c r="H17">
-        <v>0.1299670667238928</v>
+        <v>0.1299693905653641</v>
       </c>
       <c r="I17">
-        <v>0.00231826415173142</v>
+        <v>0.002814168476373169</v>
       </c>
       <c r="J17">
-        <v>0.2034863888452563</v>
+        <v>0.2219118590332698</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09580990154305713</v>
       </c>
       <c r="M17">
-        <v>1.629271920519642</v>
+        <v>0.03824008948717417</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.650935839829543</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7736925802097261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7205520148250599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.454482838942795</v>
+        <v>1.436027922627034</v>
       </c>
       <c r="C18">
-        <v>0.2812081901474102</v>
+        <v>0.297950020815378</v>
       </c>
       <c r="D18">
-        <v>0.1342333424213393</v>
+        <v>0.139299319728778</v>
       </c>
       <c r="E18">
-        <v>0.4374817255952337</v>
+        <v>0.4375544010447001</v>
       </c>
       <c r="F18">
-        <v>0.3378895711390228</v>
+        <v>0.3163593158856344</v>
       </c>
       <c r="G18">
-        <v>0.2170770037549872</v>
+        <v>0.1870502484545611</v>
       </c>
       <c r="H18">
-        <v>0.07761049707080758</v>
+        <v>0.07762267632791975</v>
       </c>
       <c r="I18">
-        <v>0.002039236695770441</v>
+        <v>0.00249445909606294</v>
       </c>
       <c r="J18">
-        <v>0.2199001870131809</v>
+        <v>0.2404348180182794</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1009866378760886</v>
       </c>
       <c r="M18">
-        <v>1.591757240000732</v>
+        <v>0.0427527448990066</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.616692227932788</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.869567299973582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8076797506526674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.443054765828236</v>
+        <v>1.420622770556918</v>
       </c>
       <c r="C19">
-        <v>0.2823313722745979</v>
+        <v>0.304121680677099</v>
       </c>
       <c r="D19">
-        <v>0.1225974463817607</v>
+        <v>0.128118138708686</v>
       </c>
       <c r="E19">
-        <v>0.8592033043961038</v>
+        <v>0.8592365609781609</v>
       </c>
       <c r="F19">
-        <v>0.3818199568115475</v>
+        <v>0.3552403163654887</v>
       </c>
       <c r="G19">
-        <v>0.2569444584034315</v>
+        <v>0.2205101073811022</v>
       </c>
       <c r="H19">
-        <v>0.03418549812352012</v>
+        <v>0.03419022189965659</v>
       </c>
       <c r="I19">
-        <v>0.002226061230223841</v>
+        <v>0.002704803458725813</v>
       </c>
       <c r="J19">
-        <v>0.2408547781415393</v>
+        <v>0.2599863351983203</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.10705093076308</v>
       </c>
       <c r="M19">
-        <v>1.582593321025229</v>
+        <v>0.04854283755288691</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.612303910489658</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9979742806320786</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9189923187598481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.501176695803196</v>
+        <v>1.47012101026516</v>
       </c>
       <c r="C20">
-        <v>0.2942435012368918</v>
+        <v>0.3267850063079862</v>
       </c>
       <c r="D20">
-        <v>0.1114366227715635</v>
+        <v>0.1186462815746125</v>
       </c>
       <c r="E20">
-        <v>1.810540042341401</v>
+        <v>1.809910287675208</v>
       </c>
       <c r="F20">
-        <v>0.4629027017437082</v>
+        <v>0.4227945129342885</v>
       </c>
       <c r="G20">
-        <v>0.3293421811135104</v>
+        <v>0.2881582631206854</v>
       </c>
       <c r="H20">
-        <v>0.01421887279914325</v>
+        <v>0.01413837853269584</v>
       </c>
       <c r="I20">
-        <v>0.00285046077264095</v>
+        <v>0.003308671960494891</v>
       </c>
       <c r="J20">
-        <v>0.2756021133801028</v>
+        <v>0.2799427586071062</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1147896727038979</v>
       </c>
       <c r="M20">
-        <v>1.647434212828784</v>
+        <v>0.05903865996401869</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.686291727522644</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.22438198766325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.101397687573012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.688236577928677</v>
+        <v>1.649936992653124</v>
       </c>
       <c r="C21">
-        <v>0.3203290335810181</v>
+        <v>0.3606733186178985</v>
       </c>
       <c r="D21">
-        <v>0.1223437055702448</v>
+        <v>0.1347686673811239</v>
       </c>
       <c r="E21">
-        <v>2.126962237319148</v>
+        <v>2.124557877823122</v>
       </c>
       <c r="F21">
-        <v>0.500505352795301</v>
+        <v>0.4350611774525959</v>
       </c>
       <c r="G21">
-        <v>0.353584075693675</v>
+        <v>0.3602048085650296</v>
       </c>
       <c r="H21">
-        <v>0.01923061371427059</v>
+        <v>0.01890439749719453</v>
       </c>
       <c r="I21">
-        <v>0.004218258200645586</v>
+        <v>0.004493501195027783</v>
       </c>
       <c r="J21">
-        <v>0.2817522314734049</v>
+        <v>0.2205643539232227</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1073163043901513</v>
       </c>
       <c r="M21">
-        <v>1.845130359221514</v>
+        <v>0.06032498766546546</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.888864825534199</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.288995167409468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.091084495773828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.812104688589244</v>
+        <v>1.769277859480979</v>
       </c>
       <c r="C22">
-        <v>0.3352269107484744</v>
+        <v>0.3800224724500367</v>
       </c>
       <c r="D22">
-        <v>0.1298486615807093</v>
+        <v>0.146004072812687</v>
       </c>
       <c r="E22">
-        <v>2.283821787207003</v>
+        <v>2.280188180863874</v>
       </c>
       <c r="F22">
-        <v>0.52391288767069</v>
+        <v>0.4408206637499887</v>
       </c>
       <c r="G22">
-        <v>0.3682522237159276</v>
+        <v>0.4138286980474817</v>
       </c>
       <c r="H22">
-        <v>0.02254030462174628</v>
+        <v>0.02202942604625835</v>
       </c>
       <c r="I22">
-        <v>0.005045492090390624</v>
+        <v>0.005074896757227165</v>
       </c>
       <c r="J22">
-        <v>0.2852617848230636</v>
+        <v>0.1883449543814528</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1025568709521707</v>
       </c>
       <c r="M22">
-        <v>1.972179519908565</v>
+        <v>0.06116564979608441</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.018619950638765</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.327654504772056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.077928761379752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.747711921948081</v>
+        <v>1.707080457200306</v>
       </c>
       <c r="C23">
-        <v>0.325255965845372</v>
+        <v>0.3678139824382356</v>
       </c>
       <c r="D23">
-        <v>0.1255323663213375</v>
+        <v>0.1392558614468129</v>
       </c>
       <c r="E23">
-        <v>2.20007959205067</v>
+        <v>2.197173690622847</v>
       </c>
       <c r="F23">
-        <v>0.5131425098342888</v>
+        <v>0.4413226925751914</v>
       </c>
       <c r="G23">
-        <v>0.3620893692793743</v>
+        <v>0.3800120941014171</v>
       </c>
       <c r="H23">
-        <v>0.02075422967453777</v>
+        <v>0.02035307929975505</v>
       </c>
       <c r="I23">
-        <v>0.004304057379603599</v>
+        <v>0.004413453533107514</v>
       </c>
       <c r="J23">
-        <v>0.2842486881794315</v>
+        <v>0.2101681284052788</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1056759452551841</v>
       </c>
       <c r="M23">
-        <v>1.902361413907471</v>
+        <v>0.0615336063637173</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.947738116083457</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.312353747231839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.095565762507135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.500993701636389</v>
+        <v>1.469442897360324</v>
       </c>
       <c r="C24">
-        <v>0.291104380769724</v>
+        <v>0.3238626802914411</v>
       </c>
       <c r="D24">
-        <v>0.1097146390705603</v>
+        <v>0.1169134408021222</v>
       </c>
       <c r="E24">
-        <v>1.884329497739145</v>
+        <v>1.88367272192437</v>
       </c>
       <c r="F24">
-        <v>0.470745146071657</v>
+        <v>0.4298867315122621</v>
       </c>
       <c r="G24">
-        <v>0.3370461192419327</v>
+        <v>0.2945403221070393</v>
       </c>
       <c r="H24">
-        <v>0.01453523448734295</v>
+        <v>0.01445193656913035</v>
       </c>
       <c r="I24">
-        <v>0.002402258927010514</v>
+        <v>0.002760147462631757</v>
       </c>
       <c r="J24">
-        <v>0.2795977291527194</v>
+        <v>0.2839470569310123</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1163059626890863</v>
       </c>
       <c r="M24">
-        <v>1.641693643333326</v>
+        <v>0.06052202325268041</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.681063764527096</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.24908013756982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.123275374920738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.234626291306398</v>
+        <v>1.213831447412247</v>
       </c>
       <c r="C25">
-        <v>0.2548268104867049</v>
+        <v>0.2739489109326882</v>
       </c>
       <c r="D25">
-        <v>0.09267208901377444</v>
+        <v>0.09745400642534463</v>
       </c>
       <c r="E25">
-        <v>1.546196413249874</v>
+        <v>1.546869590429296</v>
       </c>
       <c r="F25">
-        <v>0.4275346715758488</v>
+        <v>0.3969124920930085</v>
       </c>
       <c r="G25">
-        <v>0.3121518450703462</v>
+        <v>0.2717356501288251</v>
       </c>
       <c r="H25">
-        <v>0.008865392665519972</v>
+        <v>0.008940116792879094</v>
       </c>
       <c r="I25">
-        <v>0.001268535166310869</v>
+        <v>0.001632956160918297</v>
       </c>
       <c r="J25">
-        <v>0.2758409351492901</v>
+        <v>0.2891170010679431</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1253359143073567</v>
       </c>
       <c r="M25">
-        <v>1.361210320257271</v>
+        <v>0.05703784487541519</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.390435355638203</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.187934591526016</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.091162404903798</v>
       </c>
     </row>
   </sheetData>
